--- a/lab4/attenuation.xlsx
+++ b/lab4/attenuation.xlsx
@@ -575,11 +575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="350511680"/>
-        <c:axId val="350512072"/>
+        <c:axId val="229419224"/>
+        <c:axId val="229360024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="350511680"/>
+        <c:axId val="229419224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,6 +599,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -636,12 +692,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350512072"/>
+        <c:crossAx val="229360024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="350512072"/>
+        <c:axId val="229360024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,6 +717,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Attenuation (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -698,7 +810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350511680"/>
+        <c:crossAx val="229419224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -710,6 +822,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1207,11 +1351,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100040720"/>
-        <c:axId val="100041112"/>
+        <c:axId val="229809968"/>
+        <c:axId val="229810352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100040720"/>
+        <c:axId val="229809968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,6 +1375,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1268,12 +1468,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100041112"/>
+        <c:crossAx val="229810352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100041112"/>
+        <c:axId val="229810352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,6 +1493,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Attenuation (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1330,7 +1586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100040720"/>
+        <c:crossAx val="229809968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1342,6 +1598,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1839,11 +2127,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100041896"/>
-        <c:axId val="100042288"/>
+        <c:axId val="230493456"/>
+        <c:axId val="229862184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100041896"/>
+        <c:axId val="230493456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,6 +2151,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1900,12 +2244,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100042288"/>
+        <c:crossAx val="229862184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100042288"/>
+        <c:axId val="229862184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,6 +2269,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Attenuation (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1962,7 +2362,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100041896"/>
+        <c:crossAx val="230493456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1974,6 +2374,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2471,11 +2903,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100043072"/>
-        <c:axId val="100043464"/>
+        <c:axId val="162826504"/>
+        <c:axId val="162826896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100043072"/>
+        <c:axId val="162826504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,6 +2927,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2532,12 +3020,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100043464"/>
+        <c:crossAx val="162826896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100043464"/>
+        <c:axId val="162826896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2557,6 +3045,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Attenuation (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2594,7 +3138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100043072"/>
+        <c:crossAx val="162826504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2606,6 +3150,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5257,7 +5833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
